--- a/tbl打包工具/excel/yingzhaiConfig.xlsx
+++ b/tbl打包工具/excel/yingzhaiConfig.xlsx
@@ -42,10 +42,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1中军2前锋3左军4右军5后卫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>battleMapId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -119,6 +115,10 @@
   </si>
   <si>
     <t>bEnemy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1前锋2左军3右军4后卫5中军</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -485,7 +485,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -501,25 +501,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -527,10 +527,10 @@
         <v>10101</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D2" s="2">
         <v>0</v>
@@ -550,10 +550,10 @@
         <v>10102</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="2">
         <v>0</v>
@@ -573,10 +573,10 @@
         <v>10103</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" s="2">
         <v>0</v>
@@ -596,10 +596,10 @@
         <v>10104</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
@@ -619,10 +619,10 @@
         <v>10105</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" s="2">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>10111</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
@@ -665,10 +665,10 @@
         <v>10112</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
@@ -688,10 +688,10 @@
         <v>10113</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" s="2">
         <v>1</v>
@@ -711,10 +711,10 @@
         <v>10114</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" s="2">
         <v>1</v>
@@ -734,10 +734,10 @@
         <v>10115</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" s="2">
         <v>1</v>
@@ -764,7 +764,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -799,34 +799,34 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
         <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
         <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/tbl打包工具/excel/yingzhaiConfig.xlsx
+++ b/tbl打包工具/excel/yingzhaiConfig.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
   <si>
     <t>id_str</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -119,6 +119,59 @@
   </si>
   <si>
     <t>1前锋2左军3右军4后卫5中军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>imgStr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>imgStr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>营寨资源路径名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>营寨攻击力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>public2_yingzhai1</t>
+  </si>
+  <si>
+    <t>public2_yingzhai3</t>
+  </si>
+  <si>
+    <t>public2_yingzhai2</t>
+  </si>
+  <si>
+    <t>public2_yingzhai2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>public2_yingzhai2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>营寨防御生命</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -482,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -494,12 +547,14 @@
     <col min="2" max="2" width="9.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="7.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.875" style="1" customWidth="1"/>
+    <col min="6" max="7" width="14" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -513,16 +568,25 @@
         <v>24</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>10101</v>
       </c>
@@ -535,17 +599,26 @@
       <c r="D2" s="2">
         <v>0</v>
       </c>
-      <c r="E2" s="2">
-        <v>10</v>
+      <c r="E2" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="F2" s="2">
+        <v>200</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H2" s="2">
+        <v>10</v>
+      </c>
+      <c r="I2" s="2">
         <v>350</v>
       </c>
-      <c r="G2" s="2">
+      <c r="J2" s="2">
         <v>1500</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>10102</v>
       </c>
@@ -558,17 +631,26 @@
       <c r="D3" s="2">
         <v>0</v>
       </c>
-      <c r="E3" s="2">
-        <v>10</v>
+      <c r="E3" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="F3" s="2">
+        <v>200</v>
+      </c>
+      <c r="G3" s="2">
+        <v>500</v>
+      </c>
+      <c r="H3" s="2">
+        <v>10</v>
+      </c>
+      <c r="I3" s="2">
         <v>650</v>
       </c>
-      <c r="G3" s="2">
+      <c r="J3" s="2">
         <v>1250</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>10103</v>
       </c>
@@ -581,17 +663,26 @@
       <c r="D4" s="2">
         <v>0</v>
       </c>
-      <c r="E4" s="2">
-        <v>10</v>
+      <c r="E4" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="F4" s="2">
         <v>200</v>
       </c>
       <c r="G4" s="2">
+        <v>500</v>
+      </c>
+      <c r="H4" s="2">
+        <v>10</v>
+      </c>
+      <c r="I4" s="2">
+        <v>200</v>
+      </c>
+      <c r="J4" s="2">
         <v>1100</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>10104</v>
       </c>
@@ -604,17 +695,26 @@
       <c r="D5" s="2">
         <v>0</v>
       </c>
-      <c r="E5" s="2">
-        <v>10</v>
+      <c r="E5" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="F5" s="2">
+        <v>200</v>
+      </c>
+      <c r="G5" s="2">
+        <v>500</v>
+      </c>
+      <c r="H5" s="2">
+        <v>10</v>
+      </c>
+      <c r="I5" s="2">
         <v>800</v>
       </c>
-      <c r="G5" s="2">
+      <c r="J5" s="2">
         <v>1750</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>10105</v>
       </c>
@@ -627,17 +727,26 @@
       <c r="D6" s="2">
         <v>0</v>
       </c>
-      <c r="E6" s="2">
-        <v>10</v>
+      <c r="E6" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="F6" s="2">
+        <v>200</v>
+      </c>
+      <c r="G6" s="2">
+        <v>500</v>
+      </c>
+      <c r="H6" s="2">
+        <v>10</v>
+      </c>
+      <c r="I6" s="2">
         <v>150</v>
       </c>
-      <c r="G6" s="2">
+      <c r="J6" s="2">
         <v>1700</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>10111</v>
       </c>
@@ -650,17 +759,26 @@
       <c r="D7" s="2">
         <v>1</v>
       </c>
-      <c r="E7" s="2">
-        <v>10</v>
+      <c r="E7" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="F7" s="2">
+        <v>200</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H7" s="2">
+        <v>10</v>
+      </c>
+      <c r="I7" s="2">
         <v>1500</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>450</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>10112</v>
       </c>
@@ -673,17 +791,26 @@
       <c r="D8" s="2">
         <v>1</v>
       </c>
-      <c r="E8" s="2">
-        <v>10</v>
+      <c r="E8" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="F8" s="2">
+        <v>200</v>
+      </c>
+      <c r="G8" s="2">
+        <v>500</v>
+      </c>
+      <c r="H8" s="2">
+        <v>10</v>
+      </c>
+      <c r="I8" s="2">
         <v>1250</v>
       </c>
-      <c r="G8" s="2">
+      <c r="J8" s="2">
         <v>700</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>10113</v>
       </c>
@@ -696,17 +823,26 @@
       <c r="D9" s="2">
         <v>1</v>
       </c>
-      <c r="E9" s="2">
-        <v>10</v>
+      <c r="E9" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="F9" s="2">
+        <v>200</v>
+      </c>
+      <c r="G9" s="2">
+        <v>500</v>
+      </c>
+      <c r="H9" s="2">
+        <v>10</v>
+      </c>
+      <c r="I9" s="2">
         <v>900</v>
       </c>
-      <c r="G9" s="2">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="J9" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>10114</v>
       </c>
@@ -719,17 +855,26 @@
       <c r="D10" s="2">
         <v>1</v>
       </c>
-      <c r="E10" s="2">
-        <v>10</v>
+      <c r="E10" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="F10" s="2">
+        <v>200</v>
+      </c>
+      <c r="G10" s="2">
+        <v>500</v>
+      </c>
+      <c r="H10" s="2">
+        <v>10</v>
+      </c>
+      <c r="I10" s="2">
         <v>1700</v>
       </c>
-      <c r="G10" s="2">
+      <c r="J10" s="2">
         <v>850</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>10115</v>
       </c>
@@ -742,13 +887,22 @@
       <c r="D11" s="2">
         <v>1</v>
       </c>
-      <c r="E11" s="2">
-        <v>10</v>
+      <c r="E11" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="F11" s="2">
+        <v>200</v>
+      </c>
+      <c r="G11" s="2">
+        <v>500</v>
+      </c>
+      <c r="H11" s="2">
+        <v>10</v>
+      </c>
+      <c r="I11" s="2">
         <v>1700</v>
       </c>
-      <c r="G11" s="2">
+      <c r="J11" s="2">
         <v>150</v>
       </c>
     </row>
@@ -761,10 +915,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -815,17 +969,41 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B9" t="s">
         <v>9</v>
       </c>
     </row>
